--- a/data/reablitet.xlsx
+++ b/data/reablitet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petterblindheim/Library/Mobile Documents/com~apple~CloudDocs/Documents/3.0 HINN/Master/IDR4000 - Kvantitativ metode og statistikk/Statistikk/Arbeidskrav 1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8671DDF2-59F6-EC4C-9464-81AA7B5726F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2CC34A-63A6-0C47-8B16-537483545C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26700" yWindow="3060" windowWidth="20740" windowHeight="14140" xr2:uid="{67CA2747-6D1D-4BF3-BDC2-332EB2202D80}"/>
+    <workbookView xWindow="1380" yWindow="460" windowWidth="29940" windowHeight="16980" xr2:uid="{67CA2747-6D1D-4BF3-BDC2-332EB2202D80}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="175">
   <si>
     <t>id</t>
   </si>
@@ -118,14 +118,457 @@
   </si>
   <si>
     <t xml:space="preserve">M </t>
+  </si>
+  <si>
+    <t>82.9</t>
+  </si>
+  <si>
+    <t>83.3</t>
+  </si>
+  <si>
+    <t>77.5</t>
+  </si>
+  <si>
+    <t>75.2</t>
+  </si>
+  <si>
+    <t>75.1</t>
+  </si>
+  <si>
+    <t>64.9</t>
+  </si>
+  <si>
+    <t>65.2</t>
+  </si>
+  <si>
+    <t>78.4</t>
+  </si>
+  <si>
+    <t>84.2</t>
+  </si>
+  <si>
+    <t>72.9493365500603</t>
+  </si>
+  <si>
+    <t>72.3229291716687</t>
+  </si>
+  <si>
+    <t>69.6688311688312</t>
+  </si>
+  <si>
+    <t>72.2193548387097</t>
+  </si>
+  <si>
+    <t>62.5598404255319</t>
+  </si>
+  <si>
+    <t>62.9161118508655</t>
+  </si>
+  <si>
+    <t>70.6548536209553</t>
+  </si>
+  <si>
+    <t>70.5828220858896</t>
+  </si>
+  <si>
+    <t>71.4094387755102</t>
+  </si>
+  <si>
+    <t>65.9806451612903</t>
+  </si>
+  <si>
+    <t>63.9429928741093</t>
+  </si>
+  <si>
+    <t>62.9470588235294</t>
+  </si>
+  <si>
+    <t>52.4029850746269</t>
+  </si>
+  <si>
+    <t>52.2611940298507</t>
+  </si>
+  <si>
+    <t>6047.5</t>
+  </si>
+  <si>
+    <t>6024.5</t>
+  </si>
+  <si>
+    <t>5364.5</t>
+  </si>
+  <si>
+    <t>4704.5</t>
+  </si>
+  <si>
+    <t>4585.5</t>
+  </si>
+  <si>
+    <t>5598.5</t>
+  </si>
+  <si>
+    <t>5113.5</t>
+  </si>
+  <si>
+    <t>5350.5</t>
+  </si>
+  <si>
+    <t>3501.5</t>
+  </si>
+  <si>
+    <t>213.5</t>
+  </si>
+  <si>
+    <t>209.5</t>
+  </si>
+  <si>
+    <t>200.5</t>
+  </si>
+  <si>
+    <t>184.5</t>
+  </si>
+  <si>
+    <t>197.5</t>
+  </si>
+  <si>
+    <t>192.5</t>
+  </si>
+  <si>
+    <t>206.5</t>
+  </si>
+  <si>
+    <t>1155.38</t>
+  </si>
+  <si>
+    <t>933.88</t>
+  </si>
+  <si>
+    <t>1145.1</t>
+  </si>
+  <si>
+    <t>1272.64</t>
+  </si>
+  <si>
+    <t>874.57</t>
+  </si>
+  <si>
+    <t>1032.27</t>
+  </si>
+  <si>
+    <t>1572.84</t>
+  </si>
+  <si>
+    <t>1764.37</t>
+  </si>
+  <si>
+    <t>1010.87</t>
+  </si>
+  <si>
+    <t>1221.61</t>
+  </si>
+  <si>
+    <t>1029.85</t>
+  </si>
+  <si>
+    <t>860.1</t>
+  </si>
+  <si>
+    <t>272.7</t>
+  </si>
+  <si>
+    <t>273.7</t>
+  </si>
+  <si>
+    <t>280.4</t>
+  </si>
+  <si>
+    <t>286.4</t>
+  </si>
+  <si>
+    <t>237.5</t>
+  </si>
+  <si>
+    <t>238.2</t>
+  </si>
+  <si>
+    <t>283.4</t>
+  </si>
+  <si>
+    <t>288.8</t>
+  </si>
+  <si>
+    <t>304.3</t>
+  </si>
+  <si>
+    <t>243.7</t>
+  </si>
+  <si>
+    <t>240.9</t>
+  </si>
+  <si>
+    <t>1434.21</t>
+  </si>
+  <si>
+    <t>1299.15</t>
+  </si>
+  <si>
+    <t>1760.6</t>
+  </si>
+  <si>
+    <t>1576.55</t>
+  </si>
+  <si>
+    <t>1837.2</t>
+  </si>
+  <si>
+    <t>1179.49</t>
+  </si>
+  <si>
+    <t>2550.34</t>
+  </si>
+  <si>
+    <t>2422.88</t>
+  </si>
+  <si>
+    <t>1872.62</t>
+  </si>
+  <si>
+    <t>2148.89</t>
+  </si>
+  <si>
+    <t>1609.72</t>
+  </si>
+  <si>
+    <t>1831.17</t>
+  </si>
+  <si>
+    <t>532.2</t>
+  </si>
+  <si>
+    <t>515.1</t>
+  </si>
+  <si>
+    <t>532.9</t>
+  </si>
+  <si>
+    <t>551.4</t>
+  </si>
+  <si>
+    <t>458.7</t>
+  </si>
+  <si>
+    <t>461.2</t>
+  </si>
+  <si>
+    <t>577.2</t>
+  </si>
+  <si>
+    <t>577.1</t>
+  </si>
+  <si>
+    <t>593.5</t>
+  </si>
+  <si>
+    <t>471.1</t>
+  </si>
+  <si>
+    <t>1787.2</t>
+  </si>
+  <si>
+    <t>1504.08</t>
+  </si>
+  <si>
+    <t>2296.01</t>
+  </si>
+  <si>
+    <t>1830.2</t>
+  </si>
+  <si>
+    <t>1532.65</t>
+  </si>
+  <si>
+    <t>1386.02</t>
+  </si>
+  <si>
+    <t>2256.31</t>
+  </si>
+  <si>
+    <t>2034.09</t>
+  </si>
+  <si>
+    <t>2194.19</t>
+  </si>
+  <si>
+    <t>2518.22</t>
+  </si>
+  <si>
+    <t>1758.62</t>
+  </si>
+  <si>
+    <t>1737.16</t>
+  </si>
+  <si>
+    <t>654.4</t>
+  </si>
+  <si>
+    <t>660.3</t>
+  </si>
+  <si>
+    <t>671.4</t>
+  </si>
+  <si>
+    <t>684.5</t>
+  </si>
+  <si>
+    <t>539.6</t>
+  </si>
+  <si>
+    <t>538.6</t>
+  </si>
+  <si>
+    <t>708.8</t>
+  </si>
+  <si>
+    <t>720.8</t>
+  </si>
+  <si>
+    <t>728.3</t>
+  </si>
+  <si>
+    <t>585.6</t>
+  </si>
+  <si>
+    <t>8.50875</t>
+  </si>
+  <si>
+    <t>10.523625</t>
+  </si>
+  <si>
+    <t>10.029375</t>
+  </si>
+  <si>
+    <t>8.361</t>
+  </si>
+  <si>
+    <t>5.42379166666666</t>
+  </si>
+  <si>
+    <t>4.80525</t>
+  </si>
+  <si>
+    <t>8.0143125</t>
+  </si>
+  <si>
+    <t>3.906875</t>
+  </si>
+  <si>
+    <t>7.1065</t>
+  </si>
+  <si>
+    <t>7.114</t>
+  </si>
+  <si>
+    <t>9.174</t>
+  </si>
+  <si>
+    <t>5.629</t>
+  </si>
+  <si>
+    <t>3.632</t>
+  </si>
+  <si>
+    <t>3.317</t>
+  </si>
+  <si>
+    <t>3.522</t>
+  </si>
+  <si>
+    <t>1.2760475</t>
+  </si>
+  <si>
+    <t>3.10275875</t>
+  </si>
+  <si>
+    <t>1.580215</t>
+  </si>
+  <si>
+    <t>3.45879625</t>
+  </si>
+  <si>
+    <t>2.48612</t>
+  </si>
+  <si>
+    <t>1.63053041666666</t>
+  </si>
+  <si>
+    <t>1.2787775</t>
+  </si>
+  <si>
+    <t>1.865045</t>
+  </si>
+  <si>
+    <t>1.238965</t>
+  </si>
+  <si>
+    <t>1.942395</t>
+  </si>
+  <si>
+    <t>1.26035</t>
+  </si>
+  <si>
+    <t>1.266549375</t>
+  </si>
+  <si>
+    <t>1.073345</t>
+  </si>
+  <si>
+    <t>91.0366975172617</t>
+  </si>
+  <si>
+    <t>73.6843055506064</t>
+  </si>
+  <si>
+    <t>91.6517116539113</t>
+  </si>
+  <si>
+    <t>67.691805321867</t>
+  </si>
+  <si>
+    <t>73.3836861619423</t>
+  </si>
+  <si>
+    <t>72.9910041407073</t>
+  </si>
+  <si>
+    <t>77.1239789813225</t>
+  </si>
+  <si>
+    <t>67.3722165284636</t>
+  </si>
+  <si>
+    <t>94.9884341217014</t>
+  </si>
+  <si>
+    <t>67.8684699018828</t>
+  </si>
+  <si>
+    <t>89.7895908888465</t>
+  </si>
+  <si>
+    <t>90.0704208876307</t>
+  </si>
+  <si>
+    <t>76.3691624365482</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -143,12 +586,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -177,6 +626,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,13 +943,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315FC1C1-A828-45A4-9A2D-EDFDCA032B49}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -586,8 +1041,8 @@
       <c r="E2">
         <v>188</v>
       </c>
-      <c r="F2">
-        <v>82.9</v>
+      <c r="F2" t="s">
+        <v>28</v>
       </c>
       <c r="G2" s="1">
         <v>198</v>
@@ -595,11 +1050,11 @@
       <c r="H2">
         <v>463</v>
       </c>
-      <c r="I2" s="7">
-        <v>72.949336550060309</v>
-      </c>
-      <c r="J2">
-        <v>6047.5</v>
+      <c r="I2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
       </c>
       <c r="K2">
         <v>1.17</v>
@@ -628,17 +1083,17 @@
       <c r="S2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="5">
-        <v>8.5087499999999974</v>
-      </c>
-      <c r="U2" s="5">
-        <v>7.1065000000000005</v>
-      </c>
-      <c r="V2" s="5">
-        <v>1.2760474999999971</v>
-      </c>
-      <c r="W2" s="7">
-        <v>91.036697517261672</v>
+      <c r="T2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -657,8 +1112,8 @@
       <c r="E3">
         <v>188</v>
       </c>
-      <c r="F3">
-        <v>83.3</v>
+      <c r="F3" t="s">
+        <v>29</v>
       </c>
       <c r="G3">
         <v>198</v>
@@ -666,17 +1121,17 @@
       <c r="H3">
         <v>439</v>
       </c>
-      <c r="I3" s="7">
-        <v>72.322929171668676</v>
-      </c>
-      <c r="J3">
-        <v>6024.5</v>
+      <c r="I3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
       </c>
       <c r="K3" s="5">
         <v>1.165</v>
       </c>
-      <c r="L3">
-        <v>213.5</v>
+      <c r="L3" t="s">
+        <v>60</v>
       </c>
       <c r="M3">
         <v>58</v>
@@ -699,17 +1154,17 @@
       <c r="S3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="5">
-        <v>10.523624999999999</v>
-      </c>
-      <c r="U3" s="5">
-        <v>7.1139999999999999</v>
-      </c>
-      <c r="V3" s="5">
-        <v>3.1027587499999996</v>
-      </c>
-      <c r="W3" s="7">
-        <v>73.684305550606382</v>
+      <c r="T3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -737,50 +1192,50 @@
       <c r="H4">
         <v>438</v>
       </c>
-      <c r="I4" s="7">
-        <v>69.668831168831161</v>
-      </c>
-      <c r="J4">
-        <v>5364.5</v>
+      <c r="I4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
       </c>
       <c r="K4" s="5">
         <v>1.1749999999999998</v>
       </c>
-      <c r="L4">
-        <v>209.5</v>
+      <c r="L4" t="s">
+        <v>61</v>
       </c>
       <c r="M4">
         <v>55</v>
       </c>
-      <c r="N4" s="7">
-        <v>1155.3800000000001</v>
-      </c>
-      <c r="O4">
-        <v>272.7</v>
-      </c>
-      <c r="P4" s="7">
-        <v>1434.21</v>
-      </c>
-      <c r="Q4">
-        <v>532.20000000000005</v>
-      </c>
-      <c r="R4">
-        <v>1787.2</v>
-      </c>
-      <c r="S4">
-        <v>654.4</v>
+      <c r="N4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" t="s">
+        <v>112</v>
+      </c>
+      <c r="S4" t="s">
+        <v>124</v>
       </c>
       <c r="T4" s="5">
-        <v>10.910500000000003</v>
-      </c>
-      <c r="U4" s="5">
-        <v>9.1739999999999995</v>
-      </c>
-      <c r="V4" s="5">
-        <v>1.5802150000000028</v>
-      </c>
-      <c r="W4" s="7">
-        <v>91.651711653911349</v>
+        <v>2631847</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -799,8 +1254,8 @@
       <c r="E5">
         <v>184</v>
       </c>
-      <c r="F5">
-        <v>77.5</v>
+      <c r="F5" t="s">
+        <v>30</v>
       </c>
       <c r="G5">
         <v>182</v>
@@ -808,8 +1263,8 @@
       <c r="H5">
         <v>450</v>
       </c>
-      <c r="I5" s="7">
-        <v>72.219354838709677</v>
+      <c r="I5" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="J5">
         <v>5597</v>
@@ -823,35 +1278,35 @@
       <c r="M5">
         <v>66</v>
       </c>
-      <c r="N5" s="7">
-        <v>933.88</v>
-      </c>
-      <c r="O5">
-        <v>273.7</v>
-      </c>
-      <c r="P5" s="7">
-        <v>1299.1500000000001</v>
-      </c>
-      <c r="Q5">
-        <v>515.1</v>
-      </c>
-      <c r="R5" s="7">
-        <v>1504.08</v>
-      </c>
-      <c r="S5">
-        <v>660.3</v>
-      </c>
-      <c r="T5" s="5">
-        <v>10.029375</v>
-      </c>
-      <c r="U5" s="5">
-        <v>6.2284999999999995</v>
-      </c>
-      <c r="V5" s="5">
-        <v>3.4587962500000007</v>
-      </c>
-      <c r="W5" s="7">
-        <v>67.691805321867022</v>
+      <c r="N5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="S5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -870,8 +1325,8 @@
       <c r="E6">
         <v>177</v>
       </c>
-      <c r="F6">
-        <v>75.2</v>
+      <c r="F6" t="s">
+        <v>31</v>
       </c>
       <c r="G6">
         <v>189</v>
@@ -879,11 +1334,11 @@
       <c r="H6">
         <v>400</v>
       </c>
-      <c r="I6" s="7">
-        <v>62.559840425531917</v>
-      </c>
-      <c r="J6">
-        <v>4704.5</v>
+      <c r="I6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
       </c>
       <c r="K6">
         <v>1.24</v>
@@ -894,35 +1349,35 @@
       <c r="M6">
         <v>73</v>
       </c>
-      <c r="N6" s="7">
-        <v>1145.0999999999999</v>
-      </c>
-      <c r="O6">
-        <v>280.39999999999998</v>
-      </c>
-      <c r="P6">
-        <v>1760.6</v>
-      </c>
-      <c r="Q6">
-        <v>532.9</v>
-      </c>
-      <c r="R6" s="7">
-        <v>2296.0100000000002</v>
-      </c>
-      <c r="S6">
-        <v>671.4</v>
-      </c>
-      <c r="T6" s="5">
-        <v>8.3610000000000007</v>
-      </c>
-      <c r="U6" s="5">
-        <v>5.6289999999999996</v>
-      </c>
-      <c r="V6" s="5">
-        <v>2.486120000000001</v>
-      </c>
-      <c r="W6" s="7">
-        <v>73.383686161942336</v>
+      <c r="N6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S6" t="s">
+        <v>126</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -941,8 +1396,8 @@
       <c r="E7">
         <v>177</v>
       </c>
-      <c r="F7">
-        <v>75.099999999999994</v>
+      <c r="F7" t="s">
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>25</v>
@@ -950,8 +1405,8 @@
       <c r="H7">
         <v>403</v>
       </c>
-      <c r="I7" s="7">
-        <v>62.916111850865519</v>
+      <c r="I7" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="J7">
         <v>4725</v>
@@ -959,41 +1414,41 @@
       <c r="K7">
         <v>1.26</v>
       </c>
-      <c r="L7">
-        <v>200.5</v>
+      <c r="L7" t="s">
+        <v>62</v>
       </c>
       <c r="M7">
         <v>63</v>
       </c>
-      <c r="N7" s="7">
-        <v>1272.6400000000001</v>
-      </c>
-      <c r="O7">
-        <v>286.39999999999998</v>
-      </c>
-      <c r="P7" s="7">
-        <v>1576.55</v>
-      </c>
-      <c r="Q7">
-        <v>551.4</v>
-      </c>
-      <c r="R7">
-        <v>1830.2</v>
-      </c>
-      <c r="S7">
-        <v>684.5</v>
-      </c>
-      <c r="T7" s="5">
-        <v>5.4237916666666646</v>
-      </c>
-      <c r="U7" s="5">
-        <v>3.6320000000000001</v>
-      </c>
-      <c r="V7" s="5">
-        <v>1.6305304166666648</v>
-      </c>
-      <c r="W7" s="7">
-        <v>72.991004140707261</v>
+      <c r="N7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" t="s">
+        <v>115</v>
+      </c>
+      <c r="S7" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -1012,8 +1467,8 @@
       <c r="E8">
         <v>178</v>
       </c>
-      <c r="F8">
-        <v>64.900000000000006</v>
+      <c r="F8" t="s">
+        <v>33</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>25</v>
@@ -1021,50 +1476,50 @@
       <c r="H8">
         <v>400</v>
       </c>
-      <c r="I8" s="7">
-        <v>70.654853620955308</v>
-      </c>
-      <c r="J8">
-        <v>4585.5</v>
+      <c r="I8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
       </c>
       <c r="K8" s="5">
         <v>1.2349999999999999</v>
       </c>
-      <c r="L8">
-        <v>184.5</v>
+      <c r="L8" t="s">
+        <v>63</v>
       </c>
       <c r="M8">
         <v>53</v>
       </c>
-      <c r="N8" s="7">
-        <v>874.57</v>
-      </c>
-      <c r="O8">
-        <v>237.5</v>
-      </c>
-      <c r="P8">
-        <v>1837.2</v>
-      </c>
-      <c r="Q8">
-        <v>458.7</v>
-      </c>
-      <c r="R8" s="7">
-        <v>1532.65</v>
-      </c>
-      <c r="S8">
-        <v>539.6</v>
-      </c>
-      <c r="T8" s="5">
-        <v>4.80525</v>
-      </c>
-      <c r="U8" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="V8" s="5">
-        <v>1.2787775000000001</v>
-      </c>
-      <c r="W8" s="7">
-        <v>77.123978981322509</v>
+      <c r="N8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>106</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="S8" t="s">
+        <v>128</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -1083,8 +1538,8 @@
       <c r="E9">
         <v>178</v>
       </c>
-      <c r="F9">
-        <v>65.2</v>
+      <c r="F9" t="s">
+        <v>34</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>25</v>
@@ -1092,8 +1547,8 @@
       <c r="H9">
         <v>375</v>
       </c>
-      <c r="I9" s="7">
-        <v>70.582822085889575</v>
+      <c r="I9" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="J9">
         <v>4602</v>
@@ -1107,35 +1562,35 @@
       <c r="M9">
         <v>55.5</v>
       </c>
-      <c r="N9" s="7">
-        <v>1032.27</v>
-      </c>
-      <c r="O9">
-        <v>238.2</v>
-      </c>
-      <c r="P9" s="7">
-        <v>1179.49</v>
-      </c>
-      <c r="Q9">
-        <v>461.2</v>
-      </c>
-      <c r="R9" s="7">
-        <v>1386.02</v>
-      </c>
-      <c r="S9">
-        <v>538.6</v>
+      <c r="N9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="S9" t="s">
+        <v>129</v>
       </c>
       <c r="T9" s="5">
-        <v>5.3665000000000003</v>
-      </c>
-      <c r="U9" s="5">
-        <v>3.3170000000000002</v>
-      </c>
-      <c r="V9" s="5">
-        <v>1.8650450000000001</v>
-      </c>
-      <c r="W9" s="7">
-        <v>67.372216528463625</v>
+        <v>644776</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -1154,8 +1609,8 @@
       <c r="E10" s="2">
         <v>186</v>
       </c>
-      <c r="F10" s="2">
-        <v>78.400000000000006</v>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="G10" s="2">
         <v>191</v>
@@ -1163,50 +1618,50 @@
       <c r="H10" s="2">
         <v>453</v>
       </c>
-      <c r="I10" s="8">
-        <v>71.409438775510196</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5598.5</v>
+      <c r="I10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K10" s="6">
         <v>1.085</v>
       </c>
-      <c r="L10" s="2">
-        <v>197.5</v>
+      <c r="L10" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="M10" s="2">
         <v>56</v>
       </c>
-      <c r="N10" s="8">
-        <v>1572.84</v>
-      </c>
-      <c r="O10" s="2">
-        <v>283.39999999999998</v>
-      </c>
-      <c r="P10" s="8">
-        <v>2550.34</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>577.20000000000005</v>
-      </c>
-      <c r="R10" s="8">
-        <v>2256.31</v>
-      </c>
-      <c r="S10" s="2">
-        <v>708.8</v>
+      <c r="N10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="T10" s="6">
-        <v>10.5915</v>
+        <v>1466723</v>
       </c>
       <c r="U10" s="6">
-        <v>9.23</v>
-      </c>
-      <c r="V10" s="6">
-        <v>1.2389649999999996</v>
-      </c>
-      <c r="W10" s="8">
-        <v>94.988434121701374</v>
+        <v>45170</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -1225,8 +1680,8 @@
       <c r="E11" s="2">
         <v>186</v>
       </c>
-      <c r="F11" s="2">
-        <v>77.5</v>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G11" s="2">
         <v>197</v>
@@ -1234,50 +1689,50 @@
       <c r="H11" s="2">
         <v>450</v>
       </c>
-      <c r="I11" s="8">
-        <v>65.980645161290312</v>
-      </c>
-      <c r="J11" s="2">
-        <v>5113.5</v>
+      <c r="I11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K11" s="6">
         <v>1.145</v>
       </c>
-      <c r="L11" s="2">
-        <v>192.5</v>
+      <c r="L11" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="M11" s="2">
         <v>54.5</v>
       </c>
-      <c r="N11" s="8">
-        <v>1764.37</v>
-      </c>
-      <c r="O11" s="2">
-        <v>288.8</v>
-      </c>
-      <c r="P11" s="8">
-        <v>2422.88</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>577.1</v>
-      </c>
-      <c r="R11" s="8">
-        <v>2034.09</v>
+      <c r="N11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="S11" s="2">
         <v>715</v>
       </c>
       <c r="T11" s="6">
-        <v>5.6564999999999994</v>
-      </c>
-      <c r="U11" s="6">
-        <v>3.5219999999999998</v>
-      </c>
-      <c r="V11" s="6">
-        <v>1.9423949999999996</v>
-      </c>
-      <c r="W11" s="8">
-        <v>67.868469901882804</v>
+        <v>1703979</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -1296,8 +1751,8 @@
       <c r="E12" s="2">
         <v>178</v>
       </c>
-      <c r="F12" s="2">
-        <v>84.2</v>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>25</v>
@@ -1305,8 +1760,8 @@
       <c r="H12" s="2">
         <v>428</v>
       </c>
-      <c r="I12" s="8">
-        <v>63.942992874109258</v>
+      <c r="I12" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="J12" s="2">
         <v>5384</v>
@@ -1314,41 +1769,41 @@
       <c r="K12" s="2">
         <v>1.21</v>
       </c>
-      <c r="L12" s="2">
-        <v>206.5</v>
+      <c r="L12" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="M12" s="2">
         <v>56</v>
       </c>
-      <c r="N12" s="8">
-        <v>1010.87</v>
-      </c>
-      <c r="O12" s="2">
-        <v>304.3</v>
-      </c>
-      <c r="P12" s="8">
-        <v>1872.62</v>
+      <c r="N12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="Q12" s="2">
         <v>591</v>
       </c>
-      <c r="R12" s="8">
-        <v>2194.19</v>
-      </c>
-      <c r="S12" s="2">
-        <v>720.8</v>
+      <c r="R12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="T12" s="6">
-        <v>7.8585000000000012</v>
+        <v>2441830</v>
       </c>
       <c r="U12" s="6">
-        <v>6.4735000000000005</v>
-      </c>
-      <c r="V12" s="6">
-        <v>1.2603500000000007</v>
-      </c>
-      <c r="W12" s="8">
-        <v>89.789590888846476</v>
+        <v>1035615</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -1376,11 +1831,11 @@
       <c r="H13" s="2">
         <v>425</v>
       </c>
-      <c r="I13" s="8">
-        <v>62.947058823529417</v>
-      </c>
-      <c r="J13" s="2">
-        <v>5350.5</v>
+      <c r="I13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="K13" s="2">
         <v>1.17</v>
@@ -1391,35 +1846,35 @@
       <c r="M13" s="2">
         <v>56.5</v>
       </c>
-      <c r="N13" s="8">
-        <v>1221.6099999999999</v>
+      <c r="N13" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="O13" s="2">
         <v>309</v>
       </c>
-      <c r="P13" s="8">
-        <v>2148.89</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>593.5</v>
-      </c>
-      <c r="R13" s="8">
-        <v>2518.2199999999998</v>
-      </c>
-      <c r="S13" s="2">
-        <v>728.3</v>
-      </c>
-      <c r="T13" s="6">
-        <v>8.0143125000000008</v>
+      <c r="P13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="U13" s="6">
-        <v>6.6225000000000005</v>
-      </c>
-      <c r="V13" s="6">
-        <v>1.2665493750000003</v>
-      </c>
-      <c r="W13" s="8">
-        <v>90.070420887630732</v>
+        <v>1579827</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -1447,8 +1902,8 @@
       <c r="H14" s="2">
         <v>288</v>
       </c>
-      <c r="I14" s="8">
-        <v>52.402985074626869</v>
+      <c r="I14" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="J14" s="2">
         <v>3511</v>
@@ -1462,35 +1917,35 @@
       <c r="M14" s="2">
         <v>62.5</v>
       </c>
-      <c r="N14" s="8">
-        <v>1029.8499999999999</v>
-      </c>
-      <c r="O14" s="2">
-        <v>243.7</v>
-      </c>
-      <c r="P14" s="8">
-        <v>1609.72</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>471.1</v>
-      </c>
-      <c r="R14" s="8">
-        <v>1758.62</v>
-      </c>
-      <c r="S14" s="2">
-        <v>585.6</v>
+      <c r="N14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="T14" s="6">
-        <v>3.9400000000000004</v>
+        <v>34394</v>
       </c>
       <c r="U14" s="6">
-        <v>2.7605</v>
-      </c>
-      <c r="V14" s="6">
-        <v>1.0733450000000004</v>
-      </c>
-      <c r="W14" s="8">
-        <v>76.369162436548223</v>
+        <v>2083742</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -1518,11 +1973,11 @@
       <c r="H15" s="2">
         <v>288</v>
       </c>
-      <c r="I15" s="8">
-        <v>52.261194029850742</v>
-      </c>
-      <c r="J15" s="2">
-        <v>3501.5</v>
+      <c r="I15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K15" s="2">
         <v>1.35</v>
@@ -1533,26 +1988,26 @@
       <c r="M15" s="2">
         <v>53</v>
       </c>
-      <c r="N15" s="2">
-        <v>860.1</v>
-      </c>
-      <c r="O15" s="2">
-        <v>240.9</v>
-      </c>
-      <c r="P15" s="8">
-        <v>1831.17</v>
+      <c r="N15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="Q15" s="2">
         <v>477</v>
       </c>
-      <c r="R15" s="8">
-        <v>1737.16</v>
+      <c r="R15" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="S15" s="2">
         <v>578</v>
       </c>
-      <c r="T15" s="6">
-        <v>3.9068749999999999</v>
+      <c r="T15" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>25</v>
@@ -1561,41 +2016,6 @@
         <v>25</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="2">
         <v>25</v>
       </c>
     </row>

--- a/data/reablitet.xlsx
+++ b/data/reablitet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petterblindheim/Library/Mobile Documents/com~apple~CloudDocs/Documents/3.0 HINN/Master/IDR4000 - Kvantitativ metode og statistikk/Statistikk/Arbeidskrav 1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2CC34A-63A6-0C47-8B16-537483545C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8FC725-EEB9-9441-998E-860090BB92CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="460" windowWidth="29940" windowHeight="16980" xr2:uid="{67CA2747-6D1D-4BF3-BDC2-332EB2202D80}"/>
+    <workbookView xWindow="0" yWindow="3060" windowWidth="28800" windowHeight="16560" xr2:uid="{67CA2747-6D1D-4BF3-BDC2-332EB2202D80}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="189">
   <si>
     <t>id</t>
   </si>
@@ -559,6 +559,48 @@
   </si>
   <si>
     <t>76.3691624365482</t>
+  </si>
+  <si>
+    <t>5597.0</t>
+  </si>
+  <si>
+    <t>4725.0</t>
+  </si>
+  <si>
+    <t>4602.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>5384.0</t>
+  </si>
+  <si>
+    <t>3511.0</t>
+  </si>
+  <si>
+    <t>230.0</t>
+  </si>
+  <si>
+    <t>217.0</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>179.0</t>
+  </si>
+  <si>
+    <t>171.0</t>
   </si>
 </sst>
 </file>
@@ -567,8 +609,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -626,8 +668,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -945,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315FC1C1-A828-45A4-9A2D-EDFDCA032B49}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1059,8 +1101,8 @@
       <c r="K2">
         <v>1.17</v>
       </c>
-      <c r="L2">
-        <v>217</v>
+      <c r="L2" t="s">
+        <v>184</v>
       </c>
       <c r="M2">
         <v>59</v>
@@ -1183,8 +1225,8 @@
       <c r="E4">
         <v>184</v>
       </c>
-      <c r="F4">
-        <v>77</v>
+      <c r="F4" t="s">
+        <v>178</v>
       </c>
       <c r="G4">
         <v>182</v>
@@ -1266,14 +1308,14 @@
       <c r="I5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J5">
-        <v>5597</v>
+      <c r="J5" t="s">
+        <v>175</v>
       </c>
       <c r="K5">
         <v>1.21</v>
       </c>
-      <c r="L5">
-        <v>230</v>
+      <c r="L5" t="s">
+        <v>183</v>
       </c>
       <c r="M5">
         <v>66</v>
@@ -1343,8 +1385,8 @@
       <c r="K6">
         <v>1.24</v>
       </c>
-      <c r="L6">
-        <v>217</v>
+      <c r="L6" t="s">
+        <v>184</v>
       </c>
       <c r="M6">
         <v>73</v>
@@ -1408,8 +1450,8 @@
       <c r="I7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J7">
-        <v>4725</v>
+      <c r="J7" t="s">
+        <v>176</v>
       </c>
       <c r="K7">
         <v>1.26</v>
@@ -1550,14 +1592,14 @@
       <c r="I9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J9">
-        <v>4602</v>
+      <c r="J9" t="s">
+        <v>177</v>
       </c>
       <c r="K9">
         <v>1.23</v>
       </c>
-      <c r="L9">
-        <v>187</v>
+      <c r="L9" t="s">
+        <v>185</v>
       </c>
       <c r="M9">
         <v>55.5</v>
@@ -1763,8 +1805,8 @@
       <c r="I12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="2">
-        <v>5384</v>
+      <c r="J12" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="K12" s="2">
         <v>1.21</v>
@@ -1822,8 +1864,8 @@
       <c r="E13" s="2">
         <v>178</v>
       </c>
-      <c r="F13" s="2">
-        <v>85</v>
+      <c r="F13" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>25</v>
@@ -1840,8 +1882,8 @@
       <c r="K13" s="2">
         <v>1.17</v>
       </c>
-      <c r="L13" s="2">
-        <v>201</v>
+      <c r="L13" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="M13" s="2">
         <v>56.5</v>
@@ -1893,8 +1935,8 @@
       <c r="E14" s="2">
         <v>178</v>
       </c>
-      <c r="F14" s="2">
-        <v>67</v>
+      <c r="F14" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="G14" s="2">
         <v>201</v>
@@ -1905,14 +1947,14 @@
       <c r="I14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="2">
-        <v>3511</v>
+      <c r="J14" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="K14" s="6">
         <v>1.2949999999999999</v>
       </c>
-      <c r="L14" s="2">
-        <v>179</v>
+      <c r="L14" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="M14" s="2">
         <v>62.5</v>
@@ -1964,8 +2006,8 @@
       <c r="E15" s="2">
         <v>178</v>
       </c>
-      <c r="F15" s="2">
-        <v>67</v>
+      <c r="F15" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="G15" s="2">
         <v>202</v>
@@ -1982,8 +2024,8 @@
       <c r="K15" s="2">
         <v>1.35</v>
       </c>
-      <c r="L15" s="2">
-        <v>171</v>
+      <c r="L15" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="M15" s="2">
         <v>53</v>
